--- a/biology/Zoologie/Cucumariidae/Cucumariidae.xlsx
+++ b/biology/Zoologie/Cucumariidae/Cucumariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cucumariidae sont une famille d'holothuries (concombre de mer) de l'ordre des Dendrochirotida.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des holothuries généralement peu mobiles, qui peuvent passer la journée (ou la marée basse) cachées dans des trous ou des amas dont elles n'émergent que la nuit pour se nourrir, ne laissant parfois dépasser que leurs tentacules buccaux. Accrochées au substrat ou à d'autres organismes par leurs puissants podia, elles élancent alors leurs grands bras ramifiés en fractales dans le courant, pour y filtrer l'eau afin d'en amener les particules nutritives à la bouche. Ces tentacules peuvent être rétractés en un éclair à la moindre menace. Le lent mouvement de va-et-vient des bras vers la bouche a donné à de nombreuses espèces le nom vernaculaire de « lèche-doigts ».
-Leur forme est relativement ramassée, souvent arquée, et parfois même limitée à une simple boule (notamment chez les genres Pseudocolochirus et Paracucumaria, appelés pour cette raison « pomme de mer »), mais le plus souvent allongées et anguleuses. Leur section est généralement arrondie ou sub-quadrangulaire, mais jamais aplatie, et le trivium n'est jamais modifié en fine semelle (à la différence des Psolidae). De même, le corps n'est jamais protégé par des plaques dures (contrairement, là encore, aux Psolidae). Les podia peuvent former cinq lignes longitudinales très délimitées le long des radius, ou couvrir tout le corps, selon les genres[1]. L'anneau calcaire est simple, sans prolongements postérieurs[2]. 
-Cette famille très riche (65 genres et plus de 300 espèces) se distingue entre autres par ses 10 tentacules, contrairement aux Phyllophoridae, qui en ont entre 15 et 30[1]. Panning (1949) avait divisé cette famille en 5 sous-familles, ajoutant notamment les Colochirinae, Phyllophorinae et Thyoninae[3], mais ces deux dernières sont désormais des familles distinctes.
+Leur forme est relativement ramassée, souvent arquée, et parfois même limitée à une simple boule (notamment chez les genres Pseudocolochirus et Paracucumaria, appelés pour cette raison « pomme de mer »), mais le plus souvent allongées et anguleuses. Leur section est généralement arrondie ou sub-quadrangulaire, mais jamais aplatie, et le trivium n'est jamais modifié en fine semelle (à la différence des Psolidae). De même, le corps n'est jamais protégé par des plaques dures (contrairement, là encore, aux Psolidae). Les podia peuvent former cinq lignes longitudinales très délimitées le long des radius, ou couvrir tout le corps, selon les genres. L'anneau calcaire est simple, sans prolongements postérieurs. 
+Cette famille très riche (65 genres et plus de 300 espèces) se distingue entre autres par ses 10 tentacules, contrairement aux Phyllophoridae, qui en ont entre 15 et 30. Panning (1949) avait divisé cette famille en 5 sous-familles, ajoutant notamment les Colochirinae, Phyllophorinae et Thyoninae, mais ces deux dernières sont désormais des familles distinctes.
 			Cucumaria frondosa dans son habitat.
 			Vue apicale d'une C. frondosa, avec les tentacules buccaux.
 			idem, gros-plan.
@@ -548,7 +562,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Abyssocucumis albatrossi
